--- a/xls/отправление.xlsx
+++ b/xls/отправление.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t xml:space="preserve">operator</t>
   </si>
@@ -46,10 +46,10 @@
     <t xml:space="preserve">10:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Солнечный город</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Соловецкие острова</t>
+    <t xml:space="preserve">Солнечный город1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соловецкие острова1</t>
   </si>
   <si>
     <t xml:space="preserve">Северный речной порт</t>
@@ -61,19 +61,106 @@
     <t xml:space="preserve">10:01</t>
   </si>
   <si>
+    <t xml:space="preserve">Солнечный город2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соловецкие острова2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пассажирский флот2</t>
+  </si>
+  <si>
     <t xml:space="preserve">10:02</t>
   </si>
   <si>
+    <t xml:space="preserve">Солнечный город3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соловецкие острова3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пассажирский флот3</t>
+  </si>
+  <si>
     <t xml:space="preserve">12:30</t>
   </si>
   <si>
+    <t xml:space="preserve">Солнечный город4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соловецкие острова4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пассажирский флот4</t>
+  </si>
+  <si>
     <t xml:space="preserve">14:30</t>
   </si>
   <si>
+    <t xml:space="preserve">Солнечный город5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соловецкие острова5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пассажирский флот5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солнечный город6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соловецкие острова6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пассажирский флот6</t>
+  </si>
+  <si>
     <t xml:space="preserve">16:00</t>
   </si>
   <si>
+    <t xml:space="preserve">Солнечный город7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соловецкие острова7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пассажирский флот7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солнечный город8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соловецкие острова8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пассажирский флот8</t>
+  </si>
+  <si>
     <t xml:space="preserve">19:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солнечный город9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соловецкие острова9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пассажирский флот9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солнечный город10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соловецкие острова10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пассажирский флот10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солнечный город11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соловецкие острова11</t>
   </si>
 </sst>
 </file>
@@ -361,7 +448,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="1" sqref="A8:F12 F26"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,7 +459,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="22.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="4" width="8.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="7" style="4" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,10 +511,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
@@ -437,16 +525,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>10</v>
@@ -457,16 +545,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>10</v>
@@ -477,16 +565,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>10</v>
@@ -497,16 +585,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>10</v>
@@ -517,16 +605,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>10</v>
@@ -537,16 +625,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
@@ -557,16 +645,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>10</v>
@@ -577,16 +665,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>10</v>
@@ -597,16 +685,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>10</v>
